--- a/氣象性能評估工具V2/data/obs/backup/2016-06-16_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-16_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-16 00:00:00</t>
+    <t>2016-06-16-00</t>
   </si>
   <si>
     <t>24.0</t>
@@ -160,7 +160,7 @@
     <t>29.2</t>
   </si>
   <si>
-    <t>2016-06-16 01:00:00</t>
+    <t>2016-06-16-01</t>
   </si>
   <si>
     <t>23.2</t>
@@ -205,7 +205,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2016-06-16 02:00:00</t>
+    <t>2016-06-16-02</t>
   </si>
   <si>
     <t>22.8</t>
@@ -244,7 +244,7 @@
     <t>30.5</t>
   </si>
   <si>
-    <t>2016-06-16 03:00:00</t>
+    <t>2016-06-16-03</t>
   </si>
   <si>
     <t>22.6</t>
@@ -277,7 +277,7 @@
     <t>28.7</t>
   </si>
   <si>
-    <t>2016-06-16 04:00:00</t>
+    <t>2016-06-16-04</t>
   </si>
   <si>
     <t>22.5</t>
@@ -310,7 +310,7 @@
     <t>30.6</t>
   </si>
   <si>
-    <t>2016-06-16 05:00:00</t>
+    <t>2016-06-16-05</t>
   </si>
   <si>
     <t>23.4</t>
@@ -334,7 +334,7 @@
     <t>31.1</t>
   </si>
   <si>
-    <t>2016-06-16 06:00:00</t>
+    <t>2016-06-16-06</t>
   </si>
   <si>
     <t>24.6</t>
@@ -361,7 +361,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-16 07:00:00</t>
+    <t>2016-06-16-07</t>
   </si>
   <si>
     <t>31.7</t>
@@ -397,7 +397,7 @@
     <t>33.0</t>
   </si>
   <si>
-    <t>2016-06-16 08:00:00</t>
+    <t>2016-06-16-08</t>
   </si>
   <si>
     <t>33.7</t>
@@ -433,7 +433,7 @@
     <t>34.0</t>
   </si>
   <si>
-    <t>2016-06-16 09:00:00</t>
+    <t>2016-06-16-09</t>
   </si>
   <si>
     <t>32.3</t>
@@ -463,7 +463,7 @@
     <t>34.7</t>
   </si>
   <si>
-    <t>2016-06-16 10:00:00</t>
+    <t>2016-06-16-10</t>
   </si>
   <si>
     <t>36.5</t>
@@ -484,7 +484,7 @@
     <t>8.4</t>
   </si>
   <si>
-    <t>2016-06-16 11:00:00</t>
+    <t>2016-06-16-11</t>
   </si>
   <si>
     <t>33.3</t>
@@ -517,7 +517,7 @@
     <t>35.6</t>
   </si>
   <si>
-    <t>2016-06-16 12:00:00</t>
+    <t>2016-06-16-12</t>
   </si>
   <si>
     <t>32.1</t>
@@ -544,7 +544,7 @@
     <t>33.4</t>
   </si>
   <si>
-    <t>2016-06-16 13:00:00</t>
+    <t>2016-06-16-13</t>
   </si>
   <si>
     <t>35.2</t>
@@ -559,7 +559,7 @@
     <t>34.9</t>
   </si>
   <si>
-    <t>2016-06-16 14:00:00</t>
+    <t>2016-06-16-14</t>
   </si>
   <si>
     <t>35.4</t>
@@ -580,7 +580,7 @@
     <t>35.3</t>
   </si>
   <si>
-    <t>2016-06-16 15:00:00</t>
+    <t>2016-06-16-15</t>
   </si>
   <si>
     <t>35.7</t>
@@ -592,13 +592,13 @@
     <t>8.3</t>
   </si>
   <si>
-    <t>2016-06-16 16:00:00</t>
+    <t>2016-06-16-16</t>
   </si>
   <si>
     <t>33.8</t>
   </si>
   <si>
-    <t>2016-06-16 17:00:00</t>
+    <t>2016-06-16-17</t>
   </si>
   <si>
     <t>23.6</t>
@@ -607,7 +607,7 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>2016-06-16 18:00:00</t>
+    <t>2016-06-16-18</t>
   </si>
   <si>
     <t>22.9</t>
@@ -622,7 +622,7 @@
     <t>5.0</t>
   </si>
   <si>
-    <t>2016-06-16 19:00:00</t>
+    <t>2016-06-16-19</t>
   </si>
   <si>
     <t>22.4</t>
@@ -634,7 +634,7 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>2016-06-16 20:00:00</t>
+    <t>2016-06-16-20</t>
   </si>
   <si>
     <t>22.3</t>
@@ -649,7 +649,7 @@
     <t>13.1</t>
   </si>
   <si>
-    <t>2016-06-16 21:00:00</t>
+    <t>2016-06-16-21</t>
   </si>
   <si>
     <t>25.0</t>
@@ -664,7 +664,7 @@
     <t>4.9</t>
   </si>
   <si>
-    <t>2016-06-16 22:00:00</t>
+    <t>2016-06-16-22</t>
   </si>
   <si>
     <t>21.9</t>
@@ -679,7 +679,7 @@
     <t>12.6</t>
   </si>
   <si>
-    <t>2016-06-16 23:00:00</t>
+    <t>2016-06-16-23</t>
   </si>
   <si>
     <t>21.7</t>
